--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3739.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3739.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.218217413830246</v>
+        <v>2.139414072036743</v>
       </c>
       <c r="B1">
-        <v>2.346103925969556</v>
+        <v>3.937014102935791</v>
       </c>
       <c r="C1">
-        <v>5.062762798686499</v>
+        <v>1.617393374443054</v>
       </c>
       <c r="D1">
-        <v>3.128484024582843</v>
+        <v>0.816184937953949</v>
       </c>
       <c r="E1">
-        <v>1.182127469489895</v>
+        <v>0.8452682495117188</v>
       </c>
     </row>
   </sheetData>
